--- a/test-data/cars-invalid-update.xlsx
+++ b/test-data/cars-invalid-update.xlsx
@@ -424,7 +424,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>TOYO-CAM-2020-RED</v>
+        <v>TOYO-CAM-2015-RED-000</v>
       </c>
       <c r="B2" t="str">
         <v>Camry</v>
@@ -444,7 +444,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>FORD-F-1-2021-BLU</v>
+        <v>FORD-F-1-2016-BLU-001</v>
       </c>
       <c r="B3" t="str">
         <v>Accord</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>HOND-CR--2022-GRE</v>
+        <v>HOND-CR--2017-GRE-002</v>
       </c>
       <c r="B4" t="str">
         <v>Civic</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>TESL-MOD-2023-YEL</v>
+        <v>TESL-MOD-2018-YEL-003</v>
       </c>
       <c r="B5" t="str">
         <v>Model 3</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>BMW-3SE-2024-SIL</v>
+        <v>BMW-3SE-2019-SIL-004</v>
       </c>
       <c r="C6" t="str">
         <v>Ford</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>MERC-E-C-2020-BLA</v>
+        <v>MERC-E-C-2020-BLA-005</v>
       </c>
       <c r="B7" t="str">
         <v>Mustang</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>AUDI-Q5-2021-WHI</v>
+        <v>AUDI-Q5-2021-WHI-006</v>
       </c>
       <c r="B8" t="str">
         <v>F-150</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>CHEV-TAH-2022-RED</v>
+        <v>CHEV-TAH-2022-RED-007</v>
       </c>
       <c r="B9" t="str">
         <v>RAV4</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>NISS-ALT-2023-BLU</v>
+        <v>NISS-ALT-2023-BLU-008</v>
       </c>
       <c r="B10" t="str">
         <v>CR-V</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>MAZD-CX--2024-GRE</v>
+        <v>MAZD-CX--2024-GRE-009</v>
       </c>
       <c r="B11" t="str">
         <v/>
@@ -609,7 +609,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>TOYO-CAM-2020-RED</v>
+        <v>TOYO-CAM-2015-RED-000</v>
       </c>
       <c r="B12" t="str">
         <v>Camry</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>FORD-F-1-2021-BLU</v>
+        <v>FORD-F-1-2016-BLU-001</v>
       </c>
       <c r="B13" t="str">
         <v>Accord</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>HOND-CR--2022-GRE</v>
+        <v>HOND-CR--2017-GRE-002</v>
       </c>
       <c r="B14" t="str">
         <v>Civic</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>TESL-MOD-2023-YEL</v>
+        <v>TESL-MOD-2018-YEL-003</v>
       </c>
       <c r="B15" t="str">
         <v>Model 3</v>
@@ -689,7 +689,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>BMW-3SE-2024-SIL</v>
+        <v>BMW-3SE-2019-SIL-004</v>
       </c>
       <c r="C16" t="str">
         <v>Ford</v>

--- a/test-data/cars-invalid-update.xlsx
+++ b/test-data/cars-invalid-update.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -476,7 +476,7 @@
         <v>25000</v>
       </c>
       <c r="E4">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="F4" t="str">
         <v>red</v>
@@ -704,9 +704,29 @@
         <v>black</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>NONEXIST-SKU-9999-XXX</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Ghost</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Phantom</v>
+      </c>
+      <c r="D17">
+        <v>99999</v>
+      </c>
+      <c r="E17">
+        <v>2023</v>
+      </c>
+      <c r="F17" t="str">
+        <v>black</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F17"/>
   </ignoredErrors>
 </worksheet>
 </file>